--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -612,7 +612,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sante Fe Oil Change</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -1723,7 +1727,7 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+White Camry</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -3403,7 +3403,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL SCAN,( NOT AN ITEM LEVEL SCAN)</t>
+          <t>DC5-FINANCIAL SCAN, (NOT AN ITEM LEVEL SCAN)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA90"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,16 +607,8 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sante Fe Oil Change</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -649,7 +641,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sante Fe Oil Change</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -682,51 +678,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -741,7 +713,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -749,7 +721,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -757,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -765,7 +737,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -773,7 +745,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -781,7 +753,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -791,10 +763,14 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -802,7 +778,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -810,7 +786,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -818,7 +794,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -826,7 +802,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -834,7 +810,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -847,7 +823,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -855,7 +831,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -863,7 +839,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -871,7 +847,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -879,7 +855,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -887,7 +863,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>MILLER &amp; SONS SUPERMARKET, VERONA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr"/>
@@ -900,7 +876,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -908,7 +884,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -916,7 +892,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -924,7 +900,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -932,7 +908,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -940,7 +916,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>210 S MAIN ST</t>
+          <t>MILLER &amp; SONS SUPERMARKET, VERONA</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -953,7 +929,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -961,7 +937,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -969,7 +945,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -977,7 +953,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -985,7 +961,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -993,7 +969,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>https://g.page/MillerSonsSupermarket?share</t>
+          <t>210 S MAIN ST</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1006,7 +982,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1014,7 +990,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1022,7 +998,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1030,7 +1006,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1038,7 +1014,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1046,7 +1022,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Set up in break room - Count liquor near end of store.</t>
+          <t>https://g.page/MillerSonsSupermarket?share</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1059,7 +1035,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1067,7 +1043,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1075,7 +1051,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1083,7 +1059,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1091,7 +1067,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1099,7 +1075,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Count meat &amp; Dairy first - Aisle 4 then vendors.</t>
+          <t>Set up in break room - Count liquor near end of store.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1112,7 +1088,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1120,7 +1096,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1128,7 +1104,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1136,7 +1112,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1144,13 +1120,17 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Count meat &amp; Dairy first - Aisle 4 then vendors.</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1161,7 +1141,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1169,7 +1149,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1177,7 +1157,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1185,7 +1165,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1193,26 +1173,14 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1222,7 +1190,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1230,7 +1198,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1238,7 +1206,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1246,7 +1214,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1254,25 +1222,24 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1251,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1292,7 +1259,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1300,30 +1267,43 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1333,7 +1313,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1341,7 +1321,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1349,51 +1329,27 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -1406,7 +1362,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1414,7 +1370,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1422,53 +1378,51 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -1481,7 +1435,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1489,7 +1443,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1497,27 +1451,53 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -1530,7 +1510,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1538,13 +1518,17 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1557,19 +1541,15 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1577,57 +1557,41 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -1641,46 +1605,38 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1688,19 +1644,19 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -1716,37 +1672,44 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1754,19 +1717,19 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -1782,20 +1745,25 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1807,7 +1775,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1815,19 +1783,19 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>FESTIVAL #2710, MT PLEASANT - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -1841,26 +1809,34 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>450 W HALF DAY RD</t>
+          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1868,14 +1844,26 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>5740 WASHINGTON AVE</t>
+          <t>FESTIVAL #2710, MT PLEASANT - LIFO</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1886,26 +1874,14 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1913,7 +1889,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
+          <t>450 W HALF DAY RD</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1921,7 +1897,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PRSb1wjmEbn</t>
+          <t>5740 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1936,29 +1912,29 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -1966,7 +1942,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1974,7 +1950,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPPED</t>
+          <t>https://goo.gl/maps/PRSb1wjmEbn</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1991,19 +1967,19 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2011,19 +1987,23 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">MARIANO'S #516 +RX, CHICAGO-BUCKTOWN </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>KIM and SYDNEY meet at Ryan Rd at 5:30 am</t>
+          <t>FEW RESETS-REMAPPPED</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2040,41 +2020,41 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2112 N ASHLAND AVE</t>
+          <t xml:space="preserve">MARIANO'S #516 +RX, CHICAGO-BUCKTOWN </t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>KIM and SYDNEY meet at Ryan Rd at 5:30 am</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2089,7 +2069,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>19333 W NORTH AVE  SUITE 390</t>
+          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2101,39 +2081,30 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/As5rMPShhSw</t>
+          <t>2112 N ASHLAND AVE</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -2147,56 +2118,51 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HnZswssC8QL2</t>
+          <t>19333 W NORTH AVE  SUITE 390</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/As5rMPShhSw</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry,
-Rx</t>
-        </is>
-      </c>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2210,7 +2176,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ENTER THROUGH EMERGENCY ENTRANCE</t>
+          <t>https://goo.gl/maps/HnZswssC8QL2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2218,7 +2184,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2226,31 +2192,37 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry,
+Rx</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2267,7 +2239,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW  </t>
+          <t>ENTER THROUGH EMERGENCY ENTRANCE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2275,49 +2247,42 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2331,7 +2296,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW  </t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2339,55 +2304,49 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MARIANO'S #513 +RX, WHEATON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Sante Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2401,7 +2360,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2409,43 +2368,52 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>625 S MAIN ST</t>
+          <t>MARIANO'S #513 +RX, WHEATON</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2462,7 +2430,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>201 N MAYFAIR RD</t>
+          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2470,51 +2438,46 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wv9L9wNoPvK2</t>
+          <t>625 S MAIN ST</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -2528,7 +2491,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/efsuGG591Ms</t>
+          <t>201 N MAYFAIR RD</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2536,46 +2499,51 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/wv9L9wNoPvK2</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -2589,51 +2557,51 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/efsuGG591Ms</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2650,35 +2618,23 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2689,24 +2645,24 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2723,60 +2679,63 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2793,67 +2752,63 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7400 W RAWSON AVE, SUITE 140</t>
+          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ Kim</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -2867,36 +2822,31 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
+          <t>7400 W RAWSON AVE, SUITE 140</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2907,23 +2857,32 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store,
+w/ Kim</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
@@ -2935,29 +2894,38 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2966,9 +2934,21 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -2983,42 +2963,30 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3032,11 +3000,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3050,57 +3014,56 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Naszire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3116,52 +3079,49 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Naszire</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3169,7 +3129,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3183,30 +3143,42 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3218,7 +3190,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3226,7 +3198,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #145, KEWASKUM</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3246,29 +3218,24 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3280,7 +3247,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>FESTIVAL #2716, APPLETON - DARBOY - LIFO</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3288,7 +3255,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>PIGGLY WIGGLY #145, KEWASKUM</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3303,33 +3270,46 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>7:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>W3195 VAN ROY RD</t>
+          <t>FESTIVAL #2716, APPLETON - DARBOY - LIFO</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3337,7 +3317,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iZr1X51Jf9U2</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3354,26 +3334,22 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>7:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3382,13 +3358,17 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
+          <t>W3195 VAN ROY RD</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iZr1X51Jf9U2</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3403,19 +3383,19 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL SCAN, (NOT AN ITEM LEVEL SCAN)</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3425,33 +3405,20 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
@@ -3465,63 +3432,55 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MOBIL, ANTIOCH</t>
+          <t>DC5-FINANCIAL SCAN, (NOT AN ITEM LEVEL SCAN)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
@@ -3535,55 +3494,60 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>24480 W GRASS LAKE RD</t>
+          <t>MOBIL, ANTIOCH</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>PICK #360 +RX, FRANKLIN - 76TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3600,56 +3564,55 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FsMauEQ9HpbDzhau9</t>
+          <t>24480 W GRASS LAKE RD</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>7201 S 76TH ST</t>
+          <t>PICK #360 +RX, FRANKLIN - 76TH ST</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3664,53 +3627,61 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/FsMauEQ9HpbDzhau9</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
+          <t>7201 S 76TH ST</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3721,51 +3692,47 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3785,60 +3752,49 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:15 AM MEET WATERTOWN PLANK </t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3858,12 +3814,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3871,38 +3827,54 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">5:15 AM MEET WATERTOWN PLANK </t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -3913,45 +3885,49 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -3973,31 +3949,31 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4007,11 +3983,7 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -4024,41 +3996,37 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>800 EAST MAES AVE</t>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4070,7 +4038,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>**TEST SITE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4087,7 +4055,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -4095,35 +4063,31 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
+          <t>800 EAST MAES AVE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4135,7 +4099,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>TRUENORTH, APPLETON</t>
+          <t>**TEST SITE</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4150,37 +4114,45 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Carlie to meet at 5:45 am at Slinger Piggly Wiggly</t>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4192,7 +4164,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>120 MCCARTHY RD</t>
+          <t>TRUENORTH, APPLETON</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4211,33 +4183,33 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Carlie to meet at 5:45 am at Slinger Piggly Wiggly</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4249,7 +4221,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/1yjSHzsC4tGNmsy98</t>
+          <t>120 MCCARTHY RD</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4267,42 +4239,34 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4312,7 +4276,11 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/1yjSHzsC4tGNmsy98</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4330,40 +4298,40 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>@ Slinger Pig</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4372,21 +4340,9 @@
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -4403,36 +4359,40 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Slinger Pig</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4443,17 +4403,17 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4472,50 +4432,57 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Sante Fe</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4534,28 +4501,29 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4566,17 +4534,17 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -4595,12 +4563,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4609,8 +4577,16 @@
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4619,12 +4595,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4648,12 +4624,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4670,9 +4646,21 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
@@ -4689,12 +4677,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4704,11 +4692,7 @@
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
-        </is>
-      </c>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -4734,12 +4718,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4751,7 +4735,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4779,12 +4763,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4796,7 +4780,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4824,12 +4808,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4841,7 +4825,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>DON'S QUALITY MARKET, SEYMOUR</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4869,12 +4853,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4886,7 +4870,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>147 W WISCONSIN ST</t>
+          <t>DON'S QUALITY MARKET, SEYMOUR</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4914,12 +4898,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4931,7 +4915,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dvWfmHZYCnP9UEEf7</t>
+          <t>147 W WISCONSIN ST</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4959,12 +4943,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4974,7 +4958,11 @@
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dvWfmHZYCnP9UEEf7</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -4998,25 +4986,25 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -5045,18 +5033,17 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
@@ -5087,15 +5074,20 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
@@ -5124,19 +5116,15 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -5165,12 +5153,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -5206,12 +5194,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -5247,12 +5235,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -5288,12 +5276,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -5329,12 +5317,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -5355,6 +5343,47 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -546,24 +546,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -579,24 +619,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -624,8 +704,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -3948,21 +3948,9 @@
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -4741,7 +4729,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4787,9 +4775,21 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -4059,7 +4059,11 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -4114,7 +4118,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>**TEST SITE</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4175,7 +4179,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>**TEST SITE</t>
+          <t>TRUENORTH, APPLETON</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4240,7 +4244,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>TRUENORTH, APPLETON</t>
+          <t>120 MCCARTHY RD</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4297,7 +4301,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>120 MCCARTHY RD</t>
+          <t>https://maps.app.goo.gl/1yjSHzsC4tGNmsy98</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4352,11 +4356,7 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/1yjSHzsC4tGNmsy98</t>
-        </is>
-      </c>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4416,9 +4416,21 @@
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -4479,17 +4491,17 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4548,17 +4560,17 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4610,17 +4622,17 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>Sante Fe</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -4671,12 +4683,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4724,12 +4736,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4775,21 +4787,9 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -2668,7 +2668,12 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -2484,7 +2484,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3946,11 +3946,7 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -2682,7 +2682,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2955,10 +2955,14 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -3027,21 +3031,9 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3150,7 +3142,11 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3214,7 +3210,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3283,7 +3279,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3340,7 +3336,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>FESTIVAL #2716, APPLETON - DARBOY - LIFO</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3402,7 +3398,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>FESTIVAL #2716, APPLETON - DARBOY - LIFO</t>
+          <t>W3195 VAN ROY RD</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3451,7 +3447,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>W3195 VAN ROY RD</t>
+          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3502,11 +3498,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3554,9 +3546,21 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
@@ -3619,19 +3623,15 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3688,12 +3688,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3754,15 +3754,20 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
@@ -3803,20 +3808,15 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
@@ -3870,12 +3870,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3943,10 +3943,14 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr"/>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>NasZire</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3996,15 +4000,19 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -4045,12 +4053,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4102,12 +4110,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4163,12 +4171,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4228,12 +4236,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4285,12 +4293,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4342,12 +4350,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4403,12 +4411,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4476,12 +4484,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4543,21 +4551,9 @@
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>

--- a/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Milwaukee Schedule.xlsx
@@ -2248,7 +2248,7 @@
       <c r="W34" t="inlineStr">
         <is>
           <t>@ Store,
-White Camry, Equip</t>
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Sante Fe</t>
+          <t>White Camry</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
